--- a/src/GlobalShutcutCustomizer/settings.xlsx
+++ b/src/GlobalShutcutCustomizer/settings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\morihaya\Source\Suet\src\GlobalShutcutCustomizer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A30FF5-E88B-4734-8420-7E9BE59F0F3C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D54BE6A5-40CC-4F02-B6D7-E08CC5F74664}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{164C296F-9276-4B2B-A462-C36D4C68B39F}"/>
   </bookViews>
@@ -53,10 +53,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Shift+Control+N</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>メモ帳</t>
     <rPh sb="2" eb="3">
       <t>チョウ</t>
@@ -85,6 +81,10 @@
   </si>
   <si>
     <t>C:\WINDOWS\system32\SnippingTool.exe</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Shift+Ctrl+N</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -452,7 +452,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -479,10 +479,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -490,24 +490,24 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
